--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KarimAhmed\Music\New0\New\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C86878D-63D5-4107-96C1-67424429006A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F6D36-7775-4E60-BF8A-BE58B0251347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="1200" windowWidth="14490" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="2235" windowWidth="19575" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="121">
   <si>
     <t>المنطقة</t>
   </si>
@@ -385,12 +385,18 @@
   </si>
   <si>
     <t>العوالي5</t>
+  </si>
+  <si>
+    <t>شرورة sharura</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -428,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -436,11 +442,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000000000000000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -460,21 +486,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -489,13 +500,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:D108" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}" name="الجدول1" displayName="الجدول1" ref="A1:D108" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D108" xr:uid="{17305C8F-BF0E-403C-A93C-63B4BD9FEA74}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{94E5A0D5-9814-4234-BA7B-3D5A14A3E88C}" name="خط العرض" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{94C0F639-1F9A-4DF8-B984-A75F474B3618}" name="خط الطول" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5ADB266A-BA4F-49AB-A412-2BE0672A1DEB}" name="المنطقة" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DC00D0C0-6047-41D3-9B51-411278D405CA}" name="الموقع" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{94E5A0D5-9814-4234-BA7B-3D5A14A3E88C}" name="خط العرض" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{94C0F639-1F9A-4DF8-B984-A75F474B3618}" name="خط الطول" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -766,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,8 +808,8 @@
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -807,10 +818,10 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>24.7136</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>46.6753</v>
       </c>
     </row>
@@ -821,10 +832,10 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>24.673999999999999</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>46.721899999999998</v>
       </c>
     </row>
@@ -835,10 +846,10 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>24.692</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>46.721899999999998</v>
       </c>
     </row>
@@ -849,10 +860,10 @@
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>24.723500000000001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>46.678400000000003</v>
       </c>
     </row>
@@ -863,10 +874,10 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>24.751200000000001</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>46.712200000000003</v>
       </c>
     </row>
@@ -877,10 +888,10 @@
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>24.755600000000001</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>46.715400000000002</v>
       </c>
     </row>
@@ -891,10 +902,10 @@
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>24.762699999999999</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>46.710099999999997</v>
       </c>
     </row>
@@ -905,10 +916,10 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>24.7181</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>46.623100000000001</v>
       </c>
     </row>
@@ -919,10 +930,10 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>24.705400000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>46.724699999999999</v>
       </c>
     </row>
@@ -933,10 +944,10 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>24.751200000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>46.740099999999998</v>
       </c>
     </row>
@@ -947,10 +958,10 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>24.688600000000001</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>46.717599999999997</v>
       </c>
     </row>
@@ -961,10 +972,10 @@
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>24.7639</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>46.7151</v>
       </c>
     </row>
@@ -975,10 +986,10 @@
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>24.6905</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="3">
         <v>46.749000000000002</v>
       </c>
     </row>
@@ -989,10 +1000,10 @@
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>24.738299999999999</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="3">
         <v>46.691600000000001</v>
       </c>
     </row>
@@ -1003,10 +1014,10 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
         <v>22.4255</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="3">
         <v>55.960799999999999</v>
       </c>
     </row>
@@ -1017,10 +1028,10 @@
       <c r="B18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>26.306699999999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="3">
         <v>43.972999999999999</v>
       </c>
     </row>
@@ -1031,10 +1042,10 @@
       <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>24.7836</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="3">
         <v>46.8416</v>
       </c>
     </row>
@@ -1045,10 +1056,10 @@
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>24.789000000000001</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="3">
         <v>46.811900000000001</v>
       </c>
     </row>
@@ -1059,10 +1070,10 @@
       <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>24.786000000000001</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="3">
         <v>46.795499999999997</v>
       </c>
     </row>
@@ -1073,10 +1084,10 @@
       <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>24.8005</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>46.787799999999997</v>
       </c>
     </row>
@@ -1087,10 +1098,10 @@
       <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="3">
         <v>24.7865</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="3">
         <v>46.773099999999999</v>
       </c>
     </row>
@@ -1101,10 +1112,10 @@
       <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="3">
         <v>24.7865</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="3">
         <v>46.770299999999999</v>
       </c>
     </row>
@@ -1115,10 +1126,10 @@
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="3">
         <v>24.704799999999999</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="3">
         <v>46.693600000000004</v>
       </c>
     </row>
@@ -1129,10 +1140,10 @@
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="3">
         <v>24.7136</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>46.674900000000001</v>
       </c>
     </row>
@@ -1143,10 +1154,10 @@
       <c r="B27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="3">
         <v>24.710100000000001</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="3">
         <v>46.676299999999998</v>
       </c>
     </row>
@@ -1157,10 +1168,10 @@
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="3">
         <v>24.708200000000001</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>46.6768</v>
       </c>
     </row>
@@ -1171,10 +1182,10 @@
       <c r="B29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="3">
         <v>24.726600000000001</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="3">
         <v>46.6755</v>
       </c>
     </row>
@@ -1185,10 +1196,10 @@
       <c r="B30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="3">
         <v>24.710999999999999</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="3">
         <v>46.680999999999997</v>
       </c>
     </row>
@@ -1199,10 +1210,10 @@
       <c r="B31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="3">
         <v>24.7165</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="3">
         <v>46.676900000000003</v>
       </c>
     </row>
@@ -1213,10 +1224,10 @@
       <c r="B32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="3">
         <v>24.7057</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="3">
         <v>46.6815</v>
       </c>
     </row>
@@ -1227,10 +1238,10 @@
       <c r="B33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="3">
         <v>26.212499999999999</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="3">
         <v>50.215699999999998</v>
       </c>
     </row>
@@ -1241,10 +1252,10 @@
       <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="3">
         <v>26.205500000000001</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>50.197099999999999</v>
       </c>
     </row>
@@ -1255,10 +1266,10 @@
       <c r="B35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="3">
         <v>26.1982</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>50.215499999999999</v>
       </c>
     </row>
@@ -1269,10 +1280,10 @@
       <c r="B36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="3">
         <v>26.211099999999998</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="3">
         <v>50.1845</v>
       </c>
     </row>
@@ -1283,10 +1294,10 @@
       <c r="B37" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="3">
         <v>26.211600000000001</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="3">
         <v>50.192100000000003</v>
       </c>
     </row>
@@ -1297,10 +1308,10 @@
       <c r="B38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="3">
         <v>26.213000000000001</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="3">
         <v>50.181800000000003</v>
       </c>
     </row>
@@ -1311,10 +1322,10 @@
       <c r="B39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="3">
         <v>26.213799999999999</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="3">
         <v>50.186399999999999</v>
       </c>
     </row>
@@ -1325,10 +1336,10 @@
       <c r="B40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="3">
         <v>26.215499999999999</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="3">
         <v>50.183599999999998</v>
       </c>
     </row>
@@ -1339,10 +1350,10 @@
       <c r="B41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="3">
         <v>26.210999999999999</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="3">
         <v>50.179699999999997</v>
       </c>
     </row>
@@ -1353,10 +1364,10 @@
       <c r="B42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="3">
         <v>26.21</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="3">
         <v>50.182499999999997</v>
       </c>
     </row>
@@ -1367,10 +1378,10 @@
       <c r="B43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="3">
         <v>26.211500000000001</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="3">
         <v>50.181399999999996</v>
       </c>
     </row>
@@ -1381,10 +1392,10 @@
       <c r="B44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="3">
         <v>26.209199999999999</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="3">
         <v>50.182000000000002</v>
       </c>
     </row>
@@ -1395,10 +1406,10 @@
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="3">
         <v>26.209900000000001</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="3">
         <v>50.181899999999999</v>
       </c>
     </row>
@@ -1409,10 +1420,10 @@
       <c r="B46" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="3">
         <v>26.208100000000002</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="3">
         <v>50.177599999999998</v>
       </c>
     </row>
@@ -1423,10 +1434,10 @@
       <c r="B47" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="3">
         <v>26.2135</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="3">
         <v>50.179000000000002</v>
       </c>
     </row>
@@ -1437,10 +1448,10 @@
       <c r="B48" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="3">
         <v>26.2104</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="3">
         <v>50.178199999999997</v>
       </c>
     </row>
@@ -1451,10 +1462,10 @@
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="3">
         <v>26.207999999999998</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="3">
         <v>50.1815</v>
       </c>
     </row>
@@ -1465,10 +1476,10 @@
       <c r="B50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="3">
         <v>26.207799999999999</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="3">
         <v>50.179499999999997</v>
       </c>
     </row>
@@ -1479,10 +1490,10 @@
       <c r="B51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="3">
         <v>26.209</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>50.1755</v>
       </c>
     </row>
@@ -1493,11 +1504,11 @@
       <c r="B52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2">
-        <v>17.567499999999999</v>
-      </c>
-      <c r="D52" s="2">
-        <v>44.3339</v>
+      <c r="C52" s="3">
+        <v>17.567295430586199</v>
+      </c>
+      <c r="D52" s="3">
+        <v>44.333701516532798</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1507,11 +1518,11 @@
       <c r="B53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="2">
-        <v>17.561599999999999</v>
-      </c>
-      <c r="D53" s="2">
-        <v>43.9818</v>
+      <c r="C53" s="3">
+        <v>17.561139703490699</v>
+      </c>
+      <c r="D53" s="3">
+        <v>43.981521050262401</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,13 +1530,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="2">
-        <v>17.503900000000002</v>
-      </c>
-      <c r="D54" s="2">
-        <v>47.100099999999998</v>
+        <v>59</v>
+      </c>
+      <c r="C54" s="3">
+        <v>17.553139153643599</v>
+      </c>
+      <c r="D54" s="3">
+        <v>44.2256566772461</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,13 +1544,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="2">
-        <v>17.5534</v>
-      </c>
-      <c r="D55" s="2">
-        <v>44.225999999999999</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="3">
+        <v>17.838494893482899</v>
+      </c>
+      <c r="D55" s="3">
+        <v>44.010650203704799</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,13 +1558,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="2">
-        <v>17.8385</v>
-      </c>
-      <c r="D56" s="2">
-        <v>44.0105</v>
+        <v>61</v>
+      </c>
+      <c r="C56" s="3">
+        <v>17.534059078591799</v>
+      </c>
+      <c r="D56" s="3">
+        <v>44.206457084655703</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,13 +1572,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="2">
-        <v>17.534099999999999</v>
-      </c>
-      <c r="D57" s="2">
-        <v>44.206499999999998</v>
+        <v>62</v>
+      </c>
+      <c r="C57" s="3">
+        <v>17.5196774723149</v>
+      </c>
+      <c r="D57" s="3">
+        <v>44.192838660049397</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,13 +1586,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="2">
-        <v>17.5199</v>
-      </c>
-      <c r="D58" s="2">
-        <v>44.193300000000001</v>
+        <v>63</v>
+      </c>
+      <c r="C58" s="3">
+        <v>17.595454554957001</v>
+      </c>
+      <c r="D58" s="3">
+        <v>44.377433703041</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,13 +1600,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C59" s="2">
-        <v>17.595700000000001</v>
-      </c>
-      <c r="D59" s="2">
-        <v>44.377600000000001</v>
+        <v>64</v>
+      </c>
+      <c r="C59" s="3">
+        <v>17.5326693087077</v>
+      </c>
+      <c r="D59" s="3">
+        <v>44.201037550926202</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,13 +1614,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="2">
-        <v>17.532699999999998</v>
-      </c>
-      <c r="D60" s="2">
-        <v>44.201000000000001</v>
+        <v>65</v>
+      </c>
+      <c r="C60" s="3">
+        <v>17.634646630122401</v>
+      </c>
+      <c r="D60" s="3">
+        <v>44.450847872352597</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,27 +1628,27 @@
         <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" s="2">
-        <v>17.634799999999998</v>
-      </c>
-      <c r="D61" s="2">
-        <v>44.451099999999997</v>
+        <v>66</v>
+      </c>
+      <c r="C61" s="3">
+        <v>17.6047386418619</v>
+      </c>
+      <c r="D61" s="3">
+        <v>44.232580466270399</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C62" s="2">
-        <v>17.604800000000001</v>
-      </c>
-      <c r="D62" s="2">
-        <v>44.232500000000002</v>
+        <v>58</v>
+      </c>
+      <c r="C62" s="3">
+        <v>17.5036441984902</v>
+      </c>
+      <c r="D62" s="3">
+        <v>47.099751312827998</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1647,10 +1658,10 @@
       <c r="B63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="3">
         <v>18.22</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="3">
         <v>42.500999999999998</v>
       </c>
     </row>
@@ -1661,10 +1672,10 @@
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="3">
         <v>18.224</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="3">
         <v>42.502000000000002</v>
       </c>
     </row>
@@ -1675,10 +1686,10 @@
       <c r="B65" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="3">
         <v>18.22</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="3">
         <v>42.505000000000003</v>
       </c>
     </row>
@@ -1689,10 +1700,10 @@
       <c r="B66" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="3">
         <v>18.225000000000001</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="3">
         <v>42.508000000000003</v>
       </c>
     </row>
@@ -1703,10 +1714,10 @@
       <c r="B67" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="3">
         <v>18.23</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="3">
         <v>42.51</v>
       </c>
     </row>
@@ -1717,10 +1728,10 @@
       <c r="B68" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="3">
         <v>18.239999999999998</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="3">
         <v>42.515000000000001</v>
       </c>
     </row>
@@ -1731,10 +1742,10 @@
       <c r="B69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="3">
         <v>18.25</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="3">
         <v>42.52</v>
       </c>
     </row>
@@ -1745,10 +1756,10 @@
       <c r="B70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="3">
         <v>18.260000000000002</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>42.524999999999999</v>
       </c>
     </row>
@@ -1759,10 +1770,10 @@
       <c r="B71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="3">
         <v>18.265000000000001</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="3">
         <v>42.53</v>
       </c>
     </row>
@@ -1773,10 +1784,10 @@
       <c r="B72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="3">
         <v>18.274999999999999</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="3">
         <v>42.534999999999997</v>
       </c>
     </row>
@@ -1787,10 +1798,10 @@
       <c r="B73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="3">
         <v>18.28</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="3">
         <v>42.54</v>
       </c>
     </row>
@@ -1801,10 +1812,10 @@
       <c r="B74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="3">
         <v>18.285</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="3">
         <v>42.545000000000002</v>
       </c>
     </row>
@@ -1815,10 +1826,10 @@
       <c r="B75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="3">
         <v>17.562000000000001</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>42.552</v>
       </c>
     </row>
@@ -1829,10 +1840,10 @@
       <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="3">
         <v>17.57</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="3">
         <v>42.555</v>
       </c>
     </row>
@@ -1843,10 +1854,10 @@
       <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="3">
         <v>17.574999999999999</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="3">
         <v>42.56</v>
       </c>
     </row>
@@ -1857,10 +1868,10 @@
       <c r="B78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="3">
         <v>17.579999999999998</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>42.564999999999998</v>
       </c>
     </row>
@@ -1871,10 +1882,10 @@
       <c r="B79" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="3">
         <v>17.585000000000001</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>42.57</v>
       </c>
     </row>
@@ -1885,10 +1896,10 @@
       <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="3">
         <v>18.29</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="3">
         <v>42.575000000000003</v>
       </c>
     </row>
@@ -1899,10 +1910,10 @@
       <c r="B81" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="3">
         <v>21.355378999999999</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="3">
         <v>39.890714000000003</v>
       </c>
     </row>
@@ -1913,10 +1924,10 @@
       <c r="B82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="3">
         <v>21.355375558999999</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="3">
         <v>39.890715554000003</v>
       </c>
     </row>
@@ -1927,10 +1938,10 @@
       <c r="B83" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="3">
         <v>21.361129999999999</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>39.899628999999997</v>
       </c>
     </row>
@@ -1941,10 +1952,10 @@
       <c r="B84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="3">
         <v>21.465409000000001</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="3">
         <v>39.901463999999997</v>
       </c>
     </row>
@@ -1955,10 +1966,10 @@
       <c r="B85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="3">
         <v>21.465647000000001</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="3">
         <v>39.899751000000002</v>
       </c>
     </row>
@@ -1969,10 +1980,10 @@
       <c r="B86" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="3">
         <v>21.317447000000001</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="3">
         <v>39.690340999999997</v>
       </c>
     </row>
@@ -1983,10 +1994,10 @@
       <c r="B87" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="3">
         <v>21.455000999999999</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="3">
         <v>39.874222000000003</v>
       </c>
     </row>
@@ -1997,10 +2008,10 @@
       <c r="B88" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="3">
         <v>21.402951000000002</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="3">
         <v>39.792341</v>
       </c>
     </row>
@@ -2011,10 +2022,10 @@
       <c r="B89" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="3">
         <v>21.382835</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="3">
         <v>39.787329</v>
       </c>
     </row>
@@ -2025,10 +2036,10 @@
       <c r="B90" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="3">
         <v>21.477231</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="3">
         <v>39.915444000000001</v>
       </c>
     </row>
@@ -2039,10 +2050,10 @@
       <c r="B91" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="3">
         <v>21.370353999999999</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="3">
         <v>39.797694</v>
       </c>
     </row>
@@ -2053,10 +2064,10 @@
       <c r="B92" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="3">
         <v>21.470445999999999</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="3">
         <v>39.928963000000003</v>
       </c>
     </row>
@@ -2067,10 +2078,10 @@
       <c r="B93" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="3">
         <v>21.541</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="3">
         <v>39.176000000000002</v>
       </c>
     </row>
@@ -2081,10 +2092,10 @@
       <c r="B94" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="3">
         <v>21.53</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="3">
         <v>39.174999999999997</v>
       </c>
     </row>
@@ -2095,10 +2106,10 @@
       <c r="B95" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="3">
         <v>21.521999999999998</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>39.174999999999997</v>
       </c>
     </row>
@@ -2109,10 +2120,10 @@
       <c r="B96" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="3">
         <v>21.515000000000001</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="3">
         <v>39.18</v>
       </c>
     </row>
@@ -2123,10 +2134,10 @@
       <c r="B97" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="3">
         <v>21.51</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="3">
         <v>39.185000000000002</v>
       </c>
     </row>
@@ -2137,10 +2148,10 @@
       <c r="B98" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="3">
         <v>21.504999999999999</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="3">
         <v>39.19</v>
       </c>
     </row>
@@ -2151,10 +2162,10 @@
       <c r="B99" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="3">
         <v>21.5</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="3">
         <v>39.195</v>
       </c>
     </row>
@@ -2165,10 +2176,10 @@
       <c r="B100" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="3">
         <v>21.484999999999999</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="3">
         <v>39.195</v>
       </c>
     </row>
@@ -2179,10 +2190,10 @@
       <c r="B101" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="3">
         <v>21.48</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="3">
         <v>39.200000000000003</v>
       </c>
     </row>
@@ -2193,10 +2204,10 @@
       <c r="B102" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="3">
         <v>20.414999999999999</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="3">
         <v>41.765000000000001</v>
       </c>
     </row>
@@ -2207,10 +2218,10 @@
       <c r="B103" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="3">
         <v>20.420000000000002</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="3">
         <v>41.77</v>
       </c>
     </row>
@@ -2221,10 +2232,10 @@
       <c r="B104" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="3">
         <v>21.257999999999999</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="3">
         <v>40.514000000000003</v>
       </c>
     </row>
@@ -2235,10 +2246,10 @@
       <c r="B105" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="3">
         <v>21.265000000000001</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="3">
         <v>40.520000000000003</v>
       </c>
     </row>
@@ -2249,10 +2260,10 @@
       <c r="B106" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="3">
         <v>21.274999999999999</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="3">
         <v>40.524999999999999</v>
       </c>
     </row>
@@ -2263,10 +2274,10 @@
       <c r="B107" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="3">
         <v>21.28</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="3">
         <v>40.53</v>
       </c>
     </row>
@@ -2277,17 +2288,18 @@
       <c r="B108" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="3">
         <v>21.285</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="3">
         <v>40.534999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>